--- a/test_files/Subject_Example.xlsx
+++ b/test_files/Subject_Example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="86">
   <si>
     <t xml:space="preserve">Ethnicity</t>
   </si>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">Limit 180 Characters</t>
   </si>
   <si>
-    <t xml:space="preserve">Meters</t>
+    <t xml:space="preserve">centimeters</t>
   </si>
   <si>
     <t xml:space="preserve">Year-Month-Day</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">Caucasian</t>
   </si>
   <si>
-    <t xml:space="preserve">Charles</t>
+    <t xml:space="preserve">NA</t>
   </si>
   <si>
     <t xml:space="preserve">2018-01-05</t>
@@ -163,7 +163,7 @@
     <t xml:space="preserve">A19.XXXX</t>
   </si>
   <si>
-    <t xml:space="preserve">Good</t>
+    <t xml:space="preserve">Patient reports some lingering effects</t>
   </si>
   <si>
     <t xml:space="preserve">2018-12-01</t>
@@ -172,15 +172,15 @@
     <t xml:space="preserve">2017-02-21</t>
   </si>
   <si>
-    <t xml:space="preserve">Top Secret</t>
-  </si>
-  <si>
     <t xml:space="preserve">2000-01-02</t>
   </si>
   <si>
     <t xml:space="preserve">Fecal Transplant</t>
   </si>
   <si>
+    <t xml:space="preserve">FMT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Surgery</t>
   </si>
   <si>
@@ -193,9 +193,6 @@
     <t xml:space="preserve">Human</t>
   </si>
   <si>
-    <t xml:space="preserve">Lucy</t>
-  </si>
-  <si>
     <t xml:space="preserve">African American</t>
   </si>
   <si>
@@ -205,16 +202,13 @@
     <t xml:space="preserve">A06.81XX</t>
   </si>
   <si>
-    <t xml:space="preserve">Bad</t>
-  </si>
-  <si>
     <t xml:space="preserve">2018-12-15</t>
   </si>
   <si>
     <t xml:space="preserve">2017-03-07</t>
   </si>
   <si>
-    <t xml:space="preserve">Helpful</t>
+    <t xml:space="preserve">Patient is accepting the new organ well</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-08</t>
@@ -250,16 +244,13 @@
     <t xml:space="preserve">2007-03-27</t>
   </si>
   <si>
-    <t xml:space="preserve">Quality of life improvement</t>
-  </si>
-  <si>
     <t xml:space="preserve">2018-02-22</t>
   </si>
   <si>
     <t xml:space="preserve">2018-02-21</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotator-Cuff Replacement</t>
+    <t xml:space="preserve">Patient feels better now than prior to illness</t>
   </si>
   <si>
     <t xml:space="preserve">2015-02-15</t>
@@ -271,7 +262,7 @@
     <t xml:space="preserve">Knee Replacement</t>
   </si>
   <si>
-    <t xml:space="preserve">Bionic Eye</t>
+    <t xml:space="preserve">Patient initially reported some stomach problems immediately following transplant</t>
   </si>
   <si>
     <t xml:space="preserve">2018-02-06</t>
@@ -302,6 +293,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -390,21 +382,21 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="22.28"/>
@@ -412,7 +404,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="8.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="18.38"/>
   </cols>
   <sheetData>
@@ -764,7 +756,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>45</v>
@@ -785,16 +777,16 @@
         <v>49</v>
       </c>
       <c r="J6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>52</v>
@@ -818,7 +810,7 @@
         <v>56</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>45</v>
@@ -829,7 +821,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>63</v>
@@ -841,7 +833,7 @@
         <v>46</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>48</v>
@@ -853,16 +845,16 @@
         <v>49</v>
       </c>
       <c r="J7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>52</v>
@@ -886,7 +878,7 @@
         <v>56</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>45</v>
@@ -894,46 +886,46 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="L8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>200</v>
+      <c r="N8" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>53</v>
@@ -945,63 +937,63 @@
         <v>10</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="T8" s="0" t="s">
         <v>56</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>200</v>
       </c>
       <c r="O9" s="0" t="s">
         <v>53</v>
@@ -1013,7 +1005,7 @@
         <v>11</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S9" s="0" t="s">
         <v>55</v>
@@ -1022,10 +1014,10 @@
         <v>56</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,7 +1037,7 @@
         <v>46</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>48</v>
@@ -1057,22 +1049,22 @@
         <v>49</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>78</v>
+        <v>44</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>44</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>1905</v>
@@ -1104,7 +1096,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>45</v>
@@ -1113,7 +1105,7 @@
         <v>46</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>48</v>
@@ -1125,22 +1117,22 @@
         <v>49</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>81</v>
+        <v>44</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>44</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>1905</v>
@@ -1172,7 +1164,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>45</v>
@@ -1181,7 +1173,7 @@
         <v>46</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>48</v>
@@ -1193,19 +1185,19 @@
         <v>49</v>
       </c>
       <c r="J12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="0" t="s">
+      <c r="N12" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>83</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>53</v>
@@ -1240,7 +1232,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>45</v>
@@ -1249,7 +1241,7 @@
         <v>46</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>48</v>
@@ -1261,19 +1253,19 @@
         <v>49</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="O13" s="0" t="s">
         <v>53</v>
@@ -1317,7 +1309,7 @@
         <v>46</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>48</v>
@@ -1329,19 +1321,19 @@
         <v>49</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O14" s="0" t="s">
         <v>53</v>
@@ -1385,7 +1377,7 @@
         <v>46</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>48</v>
@@ -1397,19 +1389,19 @@
         <v>49</v>
       </c>
       <c r="J15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" s="0" t="s">
+      <c r="N15" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>83</v>
       </c>
       <c r="O15" s="0" t="s">
         <v>53</v>
@@ -1438,46 +1430,46 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>63</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>200</v>
+        <v>65</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>53</v>
@@ -1489,7 +1481,7 @@
         <v>9</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S16" s="0" t="s">
         <v>55</v>
@@ -1501,7 +1493,7 @@
         <v>62</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/Subject_Example.xlsx
+++ b/test_files/Subject_Example.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="test_subject_short" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelR1C1"/>
@@ -382,18 +382,18 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.23"/>
@@ -404,7 +404,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="18.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="18.38"/>
   </cols>
   <sheetData>
